--- a/webtest/data/testdata.xlsx
+++ b/webtest/data/testdata.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
